--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b498711e3aabb8c/Documents/UiPath/Insurance_Claim_Performer/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC5B190C-30A3-445F-A363-80ED1C101DC3}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CECDA60C-E951-470E-8822-E4846358E00C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>Insurance_Performer_ClaimPricesPath</t>
+  </si>
+  <si>
+    <t>Insurance_Performer_ManualReviewPath</t>
+  </si>
+  <si>
+    <t>Insurance_Performer_SuccessSummaryPath</t>
   </si>
 </sst>
 </file>
@@ -2790,12 +2796,12 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="35.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.33203125" customWidth="1"/>
     <col min="4" max="26" width="65.44140625" customWidth="1"/>
@@ -2845,8 +2851,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
